--- a/biology/Botanique/Ruellia_rubra/Ruellia_rubra.xlsx
+++ b/biology/Botanique/Ruellia_rubra/Ruellia_rubra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ruellia rubra est une espèce de plantes herbacées appartenant à la famille des Acanthaceae, originaire d'Amérique du Sud.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ruellia rubra est une herbacée haute de 40 à 75 cm, avec une base décombante et enracinée.
 Les tiges ne sont pas ramifiées, mais profondément sillonnées, légèrement pubescentes devenant glabrescentes avec l'âge, densément parsemées de cystolithes courts et cylindriques. 
@@ -536,7 +550,7 @@
 Les lobes inférieurs du stigmate sont longs de 1,2 mm.
 Le fruit est une capsule pubérulente-pubescente, teintée de rouge à l'apex, claviforme, mesurant 11 x 3-3,5 x 2 mm. 
 Le stipe est long de 5 mm.
-Les valves, dorsalement sillonnées, contiennent 3-4 graines brun foncé, de 2 mm de diamètre, à marge érodée[2],[3].
+Les valves, dorsalement sillonnées, contiennent 3-4 graines brun foncé, de 2 mm de diamètre, à marge érodée,.
 </t>
         </is>
       </c>
@@ -565,9 +579,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ruellia rubra est présent dans les Guyanes (Guyana, Suriname, Guyane) et au Brésil (Amapá, Pará)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ruellia rubra est présent dans les Guyanes (Guyana, Suriname, Guyane) et au Brésil (Amapá, Pará).
 </t>
         </is>
       </c>
@@ -596,10 +612,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ruellia rubra est commun dans les forêts ombragées, sur les sols sablonneux humides, autour de 160-1 000 m d'altitude, fleurit et fructifie toute l'année sauf les mois d'octobre et décembre[2].
-Sa pollinisation a été étudiée[4],[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ruellia rubra est commun dans les forêts ombragées, sur les sols sablonneux humides, autour de 160-1 000 m d'altitude, fleurit et fructifie toute l'année sauf les mois d'octobre et décembre.
+Sa pollinisation a été étudiée,.
 </t>
         </is>
       </c>
@@ -628,9 +646,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[6] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « RUELLIA (rubra) foliis ovato-oblongis, acutis; pedunculis axillaribus, longis, multifloris. (Tabula 270.)
 Planta caules plures, tetragonos, nodoſos, ramoſos, quatuor aut quinque-pedales, e radice emittens. Folia oppoſita, ovato-oblonga, acuta, finuata, glabra, ſeſſilia. Flores corymboſi, alternatim axillares, corymbis longo pedunculo ſuffultis. Calix tribus bracteis ad baſim munitur. Corolla monopetala, rubra, tubuloſa, ventricoſa, limbo quadrifido, lobis inæqualibus, ſubrotundis, patulis, fimbriatis. Stamina ; filamenta quatuor tubo inſerta, duo longiora, duo breviora. Antheræ cuſpidatæ, baſi bifidæ. Piſtillum ; germen oblongum, pedicellatum. Stylus longus. Stigma bilobum. Pericarpium ; capſula pedicellata, ovato-oblonga, compreſſa, acuta 5 utrinque in medio linuata, bilocularis, bivalvis, valvulis ab apice ad baſim longitudinaliter per medium élaſticè dehiſcentibus, diſſepimento valvulis contrario. Semina quatuor, lenticulata, emarginata.
 Florebat, fructumque ferebat Maio.
@@ -639,7 +659,7 @@
 Cette plante pouſſe de ſa racine des tiges hautes de quatre à cinq pieds. Elles ſont droites, noueuſes, branchues, &amp; à quatre angles. À chaque nœud ſont placées deux feuilles oppoſées, &amp; diſpoſées en croix. Elles ſont ſeſſiles, vertes, liſſes, ovales, légèrement dentelées à leurs bords, &amp; terminées par une longue pointe. Les plus grandes ont ſix pouces de longueur, ſur un pouce &amp; demi de largeur.
 Les fleurs naiſſent de l'aiſſelle d'une feuille d'un côte à droite, &amp; plus haut de l'autre côte à gauche. Elles ſont portées ſur un pédoncule nud, long de cinq pouces. Il ſe partage enſuite en quelques branches qui ſont attachées d'un ſeul côté à l’aiſſelle d'une foliole ſur laquelle ſont des fleurs ſolitaires.
 Le calice eſt d'une ſeule. pièce, garni à ſa baſe de trois écailles longues &amp; étroites. Il eſt diviſé profondément en cinq parties grêles &amp; aiguës.
-La corolle eſt rouge [cette couleur serait une erreur car aucune corolle à fleurs rouges n'a été observée pour cette espèce[2]], monopétale ; ſon tube eſt étroit par le bas, enſuite il eſt renflé juſqu'à ſon limbe qui ſe partage en cinq lobes inégaux &amp; franges, dont deux ſupérieurs &amp; trois inférieurs intermédiaires. Celui du milieu eſt plus large. La corolle eſt attachée au deſſous du piſtil.
+La corolle eſt rouge [cette couleur serait une erreur car aucune corolle à fleurs rouges n'a été observée pour cette espèce], monopétale ; ſon tube eſt étroit par le bas, enſuite il eſt renflé juſqu'à ſon limbe qui ſe partage en cinq lobes inégaux &amp; franges, dont deux ſupérieurs &amp; trois inférieurs intermédiaires. Celui du milieu eſt plus large. La corolle eſt attachée au deſſous du piſtil.
 Les Étamines ſont au nombre de quatre 3 placées a la paroi interne &amp; moyenne du tube : deux ſont plus longues, &amp; deux plus courtes. Leur filet eſt grêle. Les anthères ſont oblongues, échancrées par le bas, &amp; à deux bourſes.
 Le piſtil eſt un ovaire oblong, porte ſur un pivot. Il eſt ſurmonté d'un style, terminé par un stigmate à deux lames.
 L'ovaire devient une capsule ovalaire, comprimée, étranglée dans ſon milieu. Elle s'ouvre de la pointe à la baſe en deux &amp; quelquefois en quatre valves ſéparées dans leur longueur en deux loges, par une cloiſon mitoyenne, au bord de laquelle ſont attachées deux ou trois ſemences. Ces semences ſont applaties, bordées d'un petit feuillet membraneux.
